--- a/hw1.xlsx
+++ b/hw1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlgilmore/Desktop/Computer Skills/hw1-KarlGilmore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlgilmore/Desktop/cheme-375/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACAE365-7A5D-A044-A1FD-EAEF22419650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FC6FA1-D87E-6549-A687-0B76A41C2D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="1440" windowWidth="27960" windowHeight="17400" activeTab="4" xr2:uid="{9C388556-4B7D-CC4C-9C18-001706809061}"/>
+    <workbookView xWindow="3880" yWindow="1440" windowWidth="27960" windowHeight="17400" activeTab="3" xr2:uid="{9C388556-4B7D-CC4C-9C18-001706809061}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,29 @@
     <sheet name="Functions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">AAPL!$J$2:$J$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">AAPL!$K$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">AAPL!$K$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">AAPL!$K$2:$K$22</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">AAPL!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">AAPL!$L$2:$L$22</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">AAPL!$M$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">AAPL!$M$2:$M$22</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">AAPL!$N$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">AAPL!$N$2:$N$22</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Problem 4'!$A$2:$A$202</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Problem 4'!$D$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">AAPL!$K$2:$K$22</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Problem 4'!$D$2:$D$202</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Problem 4'!$E$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Problem 4'!$E$2:$E$202</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">AAPL!$L$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">AAPL!$L$2:$L$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">AAPL!$M$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">AAPL!$M$2:$M$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">AAPL!$N$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">AAPL!$N$2:$N$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">AAPL!$J$2:$J$22</definedName>
     <definedName name="tclab" localSheetId="4">'Problem 4'!$A$2:$E$202</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -397,6 +420,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,8 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,8 +539,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -535,27 +558,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AMZN!$J$2:$J$22</c:f>
               <c:numCache>
@@ -626,8 +639,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AMZN!$K$2:$K$22</c:f>
               <c:numCache>
@@ -698,7 +711,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -722,27 +735,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AMZN!$J$2:$J$22</c:f>
               <c:numCache>
@@ -813,8 +816,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AMZN!$L$2:$L$22</c:f>
               <c:numCache>
@@ -885,7 +888,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -909,25 +912,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AMZN!$J$2:$J$22</c:f>
               <c:numCache>
@@ -998,8 +993,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AMZN!$M$2:$M$22</c:f>
               <c:numCache>
@@ -1070,7 +1065,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1094,27 +1089,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AMZN!$J$2:$J$22</c:f>
               <c:numCache>
@@ -1185,8 +1170,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AMZN!$N$2:$N$22</c:f>
               <c:numCache>
@@ -1257,7 +1242,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1273,15 +1258,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2020255360"/>
         <c:axId val="2048328304"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:dateAx>
         <c:axId val="2020255360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43830"/>
-          <c:min val="43800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1393,12 +1377,16 @@
         </c:txPr>
         <c:crossAx val="2048328304"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2048328304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.02"/>
+          <c:min val="0.92"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1510,7 +1498,7 @@
         </c:txPr>
         <c:crossAx val="2020255360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1667,8 +1655,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1686,27 +1674,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AAPL!$J$2:$J$22</c:f>
               <c:numCache>
@@ -1777,8 +1755,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AAPL!$K$2:$K$22</c:f>
               <c:numCache>
@@ -1849,7 +1827,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1873,27 +1851,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AAPL!$J$2:$J$22</c:f>
               <c:numCache>
@@ -1964,8 +1932,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AAPL!$L$2:$L$22</c:f>
               <c:numCache>
@@ -2036,7 +2004,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2060,25 +2028,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AAPL!$J$2:$J$22</c:f>
               <c:numCache>
@@ -2149,8 +2109,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AAPL!$M$2:$M$22</c:f>
               <c:numCache>
@@ -2221,7 +2181,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2245,27 +2205,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>AAPL!$J$2:$J$22</c:f>
               <c:numCache>
@@ -2336,8 +2286,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>AAPL!$N$2:$N$22</c:f>
               <c:numCache>
@@ -2408,7 +2358,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2424,15 +2374,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2020255360"/>
         <c:axId val="2048328304"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:dateAx>
         <c:axId val="2020255360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43830"/>
-          <c:min val="43800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2544,12 +2493,15 @@
         </c:txPr>
         <c:crossAx val="2048328304"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2048328304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.85000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2661,7 +2613,7 @@
         </c:txPr>
         <c:crossAx val="2020255360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2818,8 +2770,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2837,25 +2789,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'Problem 4'!$A$2:$A$202</c:f>
               <c:numCache>
@@ -3466,8 +3410,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Problem 4'!$B$2:$B$202</c:f>
               <c:numCache>
@@ -4078,7 +4022,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4102,27 +4046,17 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'Problem 4'!$A$2:$A$202</c:f>
               <c:numCache>
@@ -4733,8 +4667,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Problem 4'!$C$2:$C$202</c:f>
               <c:numCache>
@@ -5345,7 +5279,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5361,14 +5295,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2000536847"/>
         <c:axId val="1883330703"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="2000536847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5446,7 +5380,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5485,8 +5419,13 @@
         </c:txPr>
         <c:crossAx val="1883330703"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="25"/>
+        <c:tickMarkSkip val="20"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1883330703"/>
         <c:scaling>
@@ -5602,7 +5541,7 @@
         </c:txPr>
         <c:crossAx val="2000536847"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5764,8 +5703,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5782,26 +5721,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'Problem 4'!$A$2:$A$202</c:f>
               <c:numCache>
@@ -6412,8 +6343,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Problem 4'!$D$2:$D$202</c:f>
               <c:numCache>
@@ -7024,7 +6955,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7047,28 +6978,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'Problem 4'!$A$2:$A$202</c:f>
               <c:numCache>
@@ -7679,8 +7600,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Problem 4'!$E$2:$E$202</c:f>
               <c:numCache>
@@ -8291,7 +8212,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8307,14 +8228,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2000536847"/>
         <c:axId val="1883330703"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="2000536847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8392,7 +8313,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8431,8 +8352,13 @@
         </c:txPr>
         <c:crossAx val="1883330703"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="25"/>
+        <c:tickMarkSkip val="20"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1883330703"/>
         <c:scaling>
@@ -8548,7 +8474,7 @@
         </c:txPr>
         <c:crossAx val="2000536847"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10951,10 +10877,10 @@
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10983,12 +10909,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
@@ -11330,16 +11256,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
@@ -11396,14 +11322,14 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1" t="s">
@@ -11491,12 +11417,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -11540,20 +11466,20 @@
       <c r="H3" s="1"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="6" t="s">
@@ -14155,7 +14081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E347D69B-88BC-E24D-9B8A-826A23B3905A}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="E23" zoomScale="172" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -14203,7 +14129,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="14">
+      <c r="A2" s="10">
         <v>43801</v>
       </c>
       <c r="B2" s="1">
@@ -14224,7 +14150,7 @@
       <c r="G2" s="1">
         <v>3925600</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="10">
         <v>43801</v>
       </c>
       <c r="K2" s="1">
@@ -14245,7 +14171,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>43802</v>
       </c>
       <c r="B3" s="1">
@@ -14266,7 +14192,7 @@
       <c r="G3" s="1">
         <v>3380900</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="10">
         <v>43802</v>
       </c>
       <c r="K3" s="1">
@@ -14287,7 +14213,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>43803</v>
       </c>
       <c r="B4" s="1">
@@ -14308,7 +14234,7 @@
       <c r="G4" s="1">
         <v>2670100</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="10">
         <v>43803</v>
       </c>
       <c r="K4" s="1">
@@ -14329,7 +14255,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="14">
+      <c r="A5" s="10">
         <v>43804</v>
       </c>
       <c r="B5" s="1">
@@ -14350,7 +14276,7 @@
       <c r="G5" s="1">
         <v>2823800</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>43804</v>
       </c>
       <c r="K5" s="1">
@@ -14371,7 +14297,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <v>43805</v>
       </c>
       <c r="B6" s="1">
@@ -14392,7 +14318,7 @@
       <c r="G6" s="1">
         <v>3117400</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <v>43805</v>
       </c>
       <c r="K6" s="1">
@@ -14413,7 +14339,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="14">
+      <c r="A7" s="10">
         <v>43808</v>
       </c>
       <c r="B7" s="1">
@@ -14434,7 +14360,7 @@
       <c r="G7" s="1">
         <v>2442800</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <v>43808</v>
       </c>
       <c r="K7" s="1">
@@ -14455,7 +14381,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="14">
+      <c r="A8" s="10">
         <v>43809</v>
       </c>
       <c r="B8" s="1">
@@ -14476,7 +14402,7 @@
       <c r="G8" s="1">
         <v>2514300</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>43809</v>
       </c>
       <c r="K8" s="1">
@@ -14497,7 +14423,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="14">
+      <c r="A9" s="10">
         <v>43810</v>
       </c>
       <c r="B9" s="1">
@@ -14518,7 +14444,7 @@
       <c r="G9" s="1">
         <v>2097600</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <v>43810</v>
       </c>
       <c r="K9" s="1">
@@ -14539,7 +14465,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="14">
+      <c r="A10" s="10">
         <v>43811</v>
       </c>
       <c r="B10" s="1">
@@ -14560,7 +14486,7 @@
       <c r="G10" s="1">
         <v>3095900</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>43811</v>
       </c>
       <c r="K10" s="1">
@@ -14581,7 +14507,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="14">
+      <c r="A11" s="10">
         <v>43812</v>
       </c>
       <c r="B11" s="1">
@@ -14602,7 +14528,7 @@
       <c r="G11" s="1">
         <v>2745700</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="10">
         <v>43812</v>
       </c>
       <c r="K11" s="1">
@@ -14623,7 +14549,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="14">
+      <c r="A12" s="10">
         <v>43815</v>
       </c>
       <c r="B12" s="1">
@@ -14644,7 +14570,7 @@
       <c r="G12" s="1">
         <v>3145200</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="10">
         <v>43815</v>
       </c>
       <c r="K12" s="1">
@@ -14665,7 +14591,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="14">
+      <c r="A13" s="10">
         <v>43816</v>
       </c>
       <c r="B13" s="1">
@@ -14686,7 +14612,7 @@
       <c r="G13" s="1">
         <v>3644400</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="10">
         <v>43816</v>
       </c>
       <c r="K13" s="1">
@@ -14707,7 +14633,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <v>43817</v>
       </c>
       <c r="B14" s="1">
@@ -14728,7 +14654,7 @@
       <c r="G14" s="1">
         <v>3351400</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="10">
         <v>43817</v>
       </c>
       <c r="K14" s="1">
@@ -14749,7 +14675,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="14">
+      <c r="A15" s="10">
         <v>43818</v>
       </c>
       <c r="B15" s="1">
@@ -14770,7 +14696,7 @@
       <c r="G15" s="1">
         <v>2652800</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="10">
         <v>43818</v>
       </c>
       <c r="K15" s="1">
@@ -14791,7 +14717,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="14">
+      <c r="A16" s="10">
         <v>43819</v>
       </c>
       <c r="B16" s="1">
@@ -14812,7 +14738,7 @@
       <c r="G16" s="1">
         <v>5150800</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="10">
         <v>43819</v>
       </c>
       <c r="K16" s="1">
@@ -14833,7 +14759,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="14">
+      <c r="A17" s="10">
         <v>43822</v>
       </c>
       <c r="B17" s="1">
@@ -14854,7 +14780,7 @@
       <c r="G17" s="1">
         <v>2136400</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>43822</v>
       </c>
       <c r="K17" s="1">
@@ -14875,7 +14801,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="14">
+      <c r="A18" s="10">
         <v>43823</v>
       </c>
       <c r="B18" s="1">
@@ -14896,7 +14822,7 @@
       <c r="G18" s="1">
         <v>881300</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="10">
         <v>43823</v>
       </c>
       <c r="K18" s="1">
@@ -14917,7 +14843,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="14">
+      <c r="A19" s="10">
         <v>43825</v>
       </c>
       <c r="B19" s="1">
@@ -14938,7 +14864,7 @@
       <c r="G19" s="1">
         <v>6005400</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="10">
         <v>43825</v>
       </c>
       <c r="K19" s="1">
@@ -14959,7 +14885,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="14">
+      <c r="A20" s="10">
         <v>43826</v>
       </c>
       <c r="B20" s="1">
@@ -14980,7 +14906,7 @@
       <c r="G20" s="1">
         <v>6186600</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="10">
         <v>43826</v>
       </c>
       <c r="K20" s="1">
@@ -15001,7 +14927,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="14">
+      <c r="A21" s="10">
         <v>43829</v>
       </c>
       <c r="B21" s="1">
@@ -15022,7 +14948,7 @@
       <c r="G21" s="1">
         <v>3674700</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="10">
         <v>43829</v>
       </c>
       <c r="K21" s="1">
@@ -15043,7 +14969,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="14">
+      <c r="A22" s="10">
         <v>43830</v>
       </c>
       <c r="B22" s="1">
@@ -15064,7 +14990,7 @@
       <c r="G22" s="1">
         <v>2506500</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="10">
         <v>43830</v>
       </c>
       <c r="K22" s="1">
@@ -15085,13 +15011,13 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
@@ -15150,7 +15076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC404ED7-8ADE-CD42-9B17-3C5428BF892E}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -15198,7 +15124,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="14">
+      <c r="A2" s="10">
         <v>43801</v>
       </c>
       <c r="B2" s="1">
@@ -15219,28 +15145,28 @@
       <c r="G2" s="1">
         <v>23621800</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="10">
         <v>43801</v>
       </c>
       <c r="K2" s="1">
-        <f>C2/$A$27</f>
+        <f t="shared" ref="K2:K22" si="0">C2/$A$27</f>
         <v>0.91350248759072006</v>
       </c>
       <c r="L2" s="1">
-        <f>D2/$A$27</f>
+        <f t="shared" ref="L2:L22" si="1">D2/$A$27</f>
         <v>0.89715653799740935</v>
       </c>
       <c r="M2" s="1">
-        <f>E2/$A$27</f>
+        <f t="shared" ref="M2:M22" si="2">E2/$A$27</f>
         <v>0.89957435517604678</v>
       </c>
       <c r="N2" s="1">
-        <f>F2/$A$27</f>
+        <f t="shared" ref="N2:N22" si="3">F2/$A$27</f>
         <v>0.89957435517604678</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="14">
+      <c r="A3" s="10">
         <v>43802</v>
       </c>
       <c r="B3" s="1">
@@ -15261,28 +15187,28 @@
       <c r="G3" s="1">
         <v>28607600</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="10">
         <v>43802</v>
       </c>
       <c r="K3" s="1">
-        <f>C3/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.88380726818608413</v>
       </c>
       <c r="L3" s="1">
-        <f>D3/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.87277375868088736</v>
       </c>
       <c r="M3" s="1">
-        <f>E3/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.88353487928217023</v>
       </c>
       <c r="N3" s="1">
-        <f>F3/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.88353487928217023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>43803</v>
       </c>
       <c r="B4" s="1">
@@ -15303,28 +15229,28 @@
       <c r="G4" s="1">
         <v>16795400</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="10">
         <v>43803</v>
       </c>
       <c r="K4" s="1">
-        <f>C4/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.89667973226657038</v>
       </c>
       <c r="L4" s="1">
-        <f>D4/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.88772347463422741</v>
       </c>
       <c r="M4" s="1">
-        <f>E4/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.89133320397752158</v>
       </c>
       <c r="N4" s="1">
-        <f>F4/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.89133320397752158</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="14">
+      <c r="A5" s="10">
         <v>43804</v>
       </c>
       <c r="B5" s="1">
@@ -15345,28 +15271,28 @@
       <c r="G5" s="1">
         <v>18606100</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>43804</v>
       </c>
       <c r="K5" s="1">
-        <f>C5/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.90546576002994916</v>
       </c>
       <c r="L5" s="1">
-        <f>D5/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.89470463602325156</v>
       </c>
       <c r="M5" s="1">
-        <f>E5/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.90440998612790713</v>
       </c>
       <c r="N5" s="1">
-        <f>F5/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.90440998612790713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <v>43805</v>
       </c>
       <c r="B6" s="1">
@@ -15387,28 +15313,28 @@
       <c r="G6" s="1">
         <v>26518900</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <v>43805</v>
       </c>
       <c r="K6" s="1">
-        <f>C6/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.92286737795744689</v>
       </c>
       <c r="L6" s="1">
-        <f>D6/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.91026730278087453</v>
       </c>
       <c r="M6" s="1">
-        <f>E6/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.92187977705185997</v>
       </c>
       <c r="N6" s="1">
-        <f>F6/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.92187977705185997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="14">
+      <c r="A7" s="10">
         <v>43808</v>
       </c>
       <c r="B7" s="1">
@@ -15429,28 +15355,28 @@
       <c r="G7" s="1">
         <v>32010600</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <v>43808</v>
       </c>
       <c r="K7" s="1">
-        <f>C7/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.92218625415670874</v>
       </c>
       <c r="L7" s="1">
-        <f>D7/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.90212841618515416</v>
       </c>
       <c r="M7" s="1">
-        <f>E7/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.90897333033829375</v>
       </c>
       <c r="N7" s="1">
-        <f>F7/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.90897333033829375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="14">
+      <c r="A8" s="10">
         <v>43809</v>
       </c>
       <c r="B8" s="1">
@@ -15471,28 +15397,28 @@
       <c r="G8" s="1">
         <v>22605100</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>43809</v>
       </c>
       <c r="K8" s="1">
-        <f>C8/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.91970036614405648</v>
       </c>
       <c r="L8" s="1">
-        <f>D8/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.90536349542714445</v>
       </c>
       <c r="M8" s="1">
-        <f>E8/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.91428577042640768</v>
       </c>
       <c r="N8" s="1">
-        <f>F8/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.91428577042640768</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="14">
+      <c r="A9" s="10">
         <v>43810</v>
       </c>
       <c r="B9" s="1">
@@ -15513,28 +15439,28 @@
       <c r="G9" s="1">
         <v>19689200</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <v>43810</v>
       </c>
       <c r="K9" s="1">
-        <f>C9/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.92320793985781591</v>
       </c>
       <c r="L9" s="1">
-        <f>D9/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.91435384126042241</v>
       </c>
       <c r="M9" s="1">
-        <f>E9/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.92208409512175915</v>
       </c>
       <c r="N9" s="1">
-        <f>F9/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.92208409512175915</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="14">
+      <c r="A10" s="10">
         <v>43811</v>
       </c>
       <c r="B10" s="1">
@@ -15555,28 +15481,28 @@
       <c r="G10" s="1">
         <v>34327600</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>43811</v>
       </c>
       <c r="K10" s="1">
-        <f>C10/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.92817981804556082</v>
       </c>
       <c r="L10" s="1">
-        <f>D10/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.91033547577732965</v>
       </c>
       <c r="M10" s="1">
-        <f>E10/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.92443383806096724</v>
       </c>
       <c r="N10" s="1">
-        <f>F10/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.92443383806096724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="14">
+      <c r="A11" s="10">
         <v>43812</v>
       </c>
       <c r="B11" s="1">
@@ -15597,28 +15523,28 @@
       <c r="G11" s="1">
         <v>33396900</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="10">
         <v>43812</v>
       </c>
       <c r="K11" s="1">
-        <f>C11/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.93751062021135267</v>
       </c>
       <c r="L11" s="1">
-        <f>D11/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.92262897509202757</v>
       </c>
       <c r="M11" s="1">
-        <f>E11/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.93699982844201934</v>
       </c>
       <c r="N11" s="1">
-        <f>F11/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.93699982844201934</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="14">
+      <c r="A12" s="10">
         <v>43815</v>
       </c>
       <c r="B12" s="1">
@@ -15639,28 +15565,28 @@
       <c r="G12" s="1">
         <v>32046500</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="10">
         <v>43815</v>
       </c>
       <c r="K12" s="1">
-        <f>C12/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.95620641831172659</v>
       </c>
       <c r="L12" s="1">
-        <f>D12/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.94323179519629075</v>
       </c>
       <c r="M12" s="1">
-        <f>E12/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.95303930093048117</v>
       </c>
       <c r="N12" s="1">
-        <f>F12/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.95303930093048117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="14">
+      <c r="A13" s="10">
         <v>43816</v>
       </c>
       <c r="B13" s="1">
@@ -15681,28 +15607,28 @@
       <c r="G13" s="1">
         <v>28539600</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="10">
         <v>43816</v>
       </c>
       <c r="K13" s="1">
-        <f>C13/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.95954365658866658</v>
       </c>
       <c r="L13" s="1">
-        <f>D13/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.94942957158718688</v>
       </c>
       <c r="M13" s="1">
-        <f>E13/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.95491234370670552</v>
       </c>
       <c r="N13" s="1">
-        <f>F13/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.95491234370670552</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <v>43817</v>
       </c>
       <c r="B14" s="1">
@@ -15723,28 +15649,28 @@
       <c r="G14" s="1">
         <v>29007100</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="10">
         <v>43817</v>
       </c>
       <c r="K14" s="1">
-        <f>C14/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.95998637752398519</v>
       </c>
       <c r="L14" s="1">
-        <f>D14/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.95051932812230888</v>
       </c>
       <c r="M14" s="1">
-        <f>E14/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.95263066819609732</v>
       </c>
       <c r="N14" s="1">
-        <f>F14/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.95263066819609732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="14">
+      <c r="A15" s="10">
         <v>43818</v>
       </c>
       <c r="B15" s="1">
@@ -15765,28 +15691,28 @@
       <c r="G15" s="1">
         <v>24592300</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="10">
         <v>43818</v>
       </c>
       <c r="K15" s="1">
-        <f>C15/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.95753447554982762</v>
       </c>
       <c r="L15" s="1">
-        <f>D15/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.94994046551896072</v>
       </c>
       <c r="M15" s="1">
-        <f>E15/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.95358418090074959</v>
       </c>
       <c r="N15" s="1">
-        <f>F15/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.95358418090074959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="14">
+      <c r="A16" s="10">
         <v>43819</v>
       </c>
       <c r="B16" s="1">
@@ -15807,28 +15733,28 @@
       <c r="G16" s="1">
         <v>68994500</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="10">
         <v>43819</v>
       </c>
       <c r="K16" s="1">
-        <f>C16/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.96254043853309257</v>
       </c>
       <c r="L16" s="1">
-        <f>D16/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.9486123061184194</v>
       </c>
       <c r="M16" s="1">
-        <f>E16/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.95160908465743066</v>
       </c>
       <c r="N16" s="1">
-        <f>F16/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.95160908465743066</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="14">
+      <c r="A17" s="10">
         <v>43822</v>
       </c>
       <c r="B17" s="1">
@@ -15849,28 +15775,28 @@
       <c r="G17" s="1">
         <v>24643000</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>43822</v>
       </c>
       <c r="K17" s="1">
-        <f>C17/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.96798912245167634</v>
       </c>
       <c r="L17" s="1">
-        <f>D17/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.95477609647082107</v>
       </c>
       <c r="M17" s="1">
-        <f>E17/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.96713776878197388</v>
       </c>
       <c r="N17" s="1">
-        <f>F17/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.96713776878197388</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="14">
+      <c r="A18" s="10">
         <v>43823</v>
       </c>
       <c r="B18" s="1">
@@ -15891,28 +15817,28 @@
       <c r="G18" s="1">
         <v>12119700</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="10">
         <v>43823</v>
       </c>
       <c r="K18" s="1">
-        <f>C18/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.97016863892733474</v>
       </c>
       <c r="L18" s="1">
-        <f>D18/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.96345996519925003</v>
       </c>
       <c r="M18" s="1">
-        <f>E18/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.96805719328569106</v>
       </c>
       <c r="N18" s="1">
-        <f>F18/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.96805719328569106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="14">
+      <c r="A19" s="10">
         <v>43825</v>
       </c>
       <c r="B19" s="1">
@@ -15933,28 +15859,28 @@
       <c r="G19" s="1">
         <v>23280300</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="10">
         <v>43825</v>
       </c>
       <c r="K19" s="1">
-        <f>C19/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.98750218602081774</v>
       </c>
       <c r="L19" s="1">
-        <f>D19/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.96952159992211684</v>
       </c>
       <c r="M19" s="1">
-        <f>E19/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.98726378315539831</v>
       </c>
       <c r="N19" s="1">
-        <f>F19/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.98726378315539831</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="14">
+      <c r="A20" s="10">
         <v>43826</v>
       </c>
       <c r="B20" s="1">
@@ -15975,28 +15901,28 @@
       <c r="G20" s="1">
         <v>36566500</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="10">
         <v>43826</v>
       </c>
       <c r="K20" s="1">
-        <f>C20/$A$27</f>
+        <f t="shared" si="0"/>
         <v>1.001089756535122</v>
       </c>
       <c r="L20" s="1">
-        <f>D20/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.98116806023159675</v>
       </c>
       <c r="M20" s="1">
-        <f>E20/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.98688913305409431</v>
       </c>
       <c r="N20" s="1">
-        <f>F20/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.98688913305409431</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="14">
+      <c r="A21" s="10">
         <v>43829</v>
       </c>
       <c r="B21" s="1">
@@ -16017,28 +15943,28 @@
       <c r="G21" s="1">
         <v>36028600</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="10">
         <v>43829</v>
       </c>
       <c r="K21" s="1">
-        <f>C21/$A$27</f>
+        <f t="shared" si="0"/>
         <v>0.99673082915166</v>
       </c>
       <c r="L21" s="1">
-        <f>D21/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.97129237809553648</v>
       </c>
       <c r="M21" s="1">
-        <f>E21/$A$27</f>
+        <f t="shared" si="2"/>
         <v>0.99274644970706183</v>
       </c>
       <c r="N21" s="1">
-        <f>F21/$A$27</f>
+        <f t="shared" si="3"/>
         <v>0.99274644970706183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="14">
+      <c r="A22" s="10">
         <v>43830</v>
       </c>
       <c r="B22" s="1">
@@ -16059,34 +15985,34 @@
       <c r="G22" s="1">
         <v>25201400</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="10">
         <v>43830</v>
       </c>
       <c r="K22" s="1">
-        <f>C22/$A$27</f>
+        <f t="shared" si="0"/>
         <v>1.0001021590349497</v>
       </c>
       <c r="L22" s="1">
-        <f>D22/$A$27</f>
+        <f t="shared" si="1"/>
         <v>0.98593562034944238</v>
       </c>
       <c r="M22" s="1">
-        <f>E22/$A$27</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N22" s="1">
-        <f>F22/$A$27</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
@@ -16145,8 +16071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84A0C2C-91FB-3245-9E69-4F65F7E2C061}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16172,3419 +16098,3419 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>21.0899999999999</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>19.71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>3.0025656223297101</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>21.059999999999899</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>6.0510282516479403</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>21</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>9.0531990528106601</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>21.16</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>12.0525786876678</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>21.19</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>15.0674862861633</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>21.579999999999899</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>18.069339990615799</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>21.87</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>21.069981098174999</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>22.35</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>24.0718638896942</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>22.8</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>27.071097373962399</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>23.35</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>19.829999999999899</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>30.0715010166168</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>23.8599999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>19.739999999999899</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>33.089006423950103</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>24.51</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>19.7699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>36.090946674346903</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>25.059999999999899</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>19.64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>39.092747211456199</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>25.6999999999999</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>19.87</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>42.094630956649702</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>26.12</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>19.87</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>45.097267627716001</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>26.829999999999899</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>19.899999999999899</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15">
+      <c r="A18" s="11">
         <v>48.099141836166297</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>0</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>27.3399999999999</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>19.96</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15">
+      <c r="A19" s="11">
         <v>51.099032640457096</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>27.89</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>54.101989269256499</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <v>28.5</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>20.03</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15">
+      <c r="A21" s="11">
         <v>57.101338148117001</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>70.204572511977901</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>0</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>29.05</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>20.059999999999899</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15">
+      <c r="A22" s="11">
         <v>60.101649284362701</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <v>29.6</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <v>20.219999999999899</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15">
+      <c r="A23" s="11">
         <v>63.103514909744199</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="11">
         <v>0</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <v>30.239999999999899</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15">
+      <c r="A24" s="11">
         <v>66.105389356613102</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>0</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <v>30.89</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>20.12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15">
+      <c r="A25" s="11">
         <v>69.107260704040499</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="11">
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <v>31.44</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>20.350000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15">
+      <c r="A26" s="11">
         <v>72.109147787094102</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="11">
         <v>0</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="11">
         <v>31.98</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <v>20.25</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15">
+      <c r="A27" s="11">
         <v>75.111088275909395</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="11">
         <v>0</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="11">
         <v>32.759999999999899</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>20.32</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15">
+      <c r="A28" s="11">
         <v>78.112888336181598</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="11">
         <v>0</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="11">
         <v>33.340000000000003</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="11">
         <v>20.420000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="15">
+      <c r="A29" s="11">
         <v>81.114762783050494</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="11">
         <v>0</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="11">
         <v>34.1099999999999</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>20.51</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="15">
+      <c r="A30" s="11">
         <v>84.116634368896399</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="11">
         <v>0</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="11">
         <v>34.85</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="11">
         <v>20.67</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="15">
+      <c r="A31" s="11">
         <v>87.116501569747896</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="11">
         <v>0</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="11">
         <v>35.53</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="11">
         <v>20.71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15">
+      <c r="A32" s="11">
         <v>90.116719484329195</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="11">
         <v>0</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="11">
         <v>36.24</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="11">
         <v>20.739999999999899</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15">
+      <c r="A33" s="11">
         <v>93.118587255477905</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="11">
         <v>0</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="11">
         <v>36.92</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <v>20.7699999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15">
+      <c r="A34" s="11">
         <v>96.118192911148</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="11">
         <v>0</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="11">
         <v>37.619999999999898</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="11">
         <v>20.96</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15">
+      <c r="A35" s="11">
         <v>99.1200749874114</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="11">
         <v>0</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="11">
         <v>38.24</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <v>20.899999999999899</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15">
+      <c r="A36" s="11">
         <v>102.12194657325701</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="11">
         <v>0</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="11">
         <v>39.0399999999999</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="11">
         <v>21.03</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="15">
+      <c r="A37" s="11">
         <v>105.12383842468201</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="11">
         <v>0</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="11">
         <v>39.649999999999899</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="11">
         <v>21.25</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="15">
+      <c r="A38" s="11">
         <v>108.12585330009399</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="11">
         <v>0</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="11">
         <v>40.270000000000003</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="11">
         <v>21.2899999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15">
+      <c r="A39" s="11">
         <v>111.127596378326</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="11">
         <v>0</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="11">
         <v>40.880000000000003</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>21.3799999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="15">
+      <c r="A40" s="11">
         <v>114.12947630882201</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="11">
         <v>0</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="11">
         <v>41.59</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="11">
         <v>21.51</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15">
+      <c r="A41" s="11">
         <v>117.131344556808</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="11">
         <v>96.827184630018195</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="11">
         <v>0</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="11">
         <v>42.17</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="11">
         <v>21.5399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15">
+      <c r="A42" s="11">
         <v>120.130110502243</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="11">
         <v>0</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="11">
         <v>42.81</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="11">
         <v>21.64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15">
+      <c r="A43" s="11">
         <v>123.131986379623</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="11">
         <v>0</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="11">
         <v>43.42</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <v>21.8</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15">
+      <c r="A44" s="11">
         <v>126.131590366363</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="11">
         <v>0</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="11">
         <v>44.0399999999999</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="11">
         <v>21.899999999999899</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15">
+      <c r="A45" s="11">
         <v>129.13347506523101</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="11">
         <v>0</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="11">
         <v>44.42</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="11">
         <v>21.989999999999899</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15">
+      <c r="A46" s="11">
         <v>132.133210897445</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="11">
         <v>0</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="11">
         <v>44.88</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="11">
         <v>22.059999999999899</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15">
+      <c r="A47" s="11">
         <v>135.13343524932799</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="11">
         <v>0</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="11">
         <v>45.1</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="11">
         <v>22.25</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15">
+      <c r="A48" s="11">
         <v>138.13501548766999</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="11">
         <v>0</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="11">
         <v>45.329999999999899</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="11">
         <v>22.3799999999999</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15">
+      <c r="A49" s="11">
         <v>141.137184858322</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="11">
         <v>0</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="11">
         <v>45.49</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="11">
         <v>22.4499999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="15">
+      <c r="A50" s="11">
         <v>144.13904762268001</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="11">
         <v>0</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="11">
         <v>45.579999999999899</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="11">
         <v>22.5399999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="15">
+      <c r="A51" s="11">
         <v>147.14092969894401</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="11">
         <v>0</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="11">
         <v>45.75</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="11">
         <v>22.7699999999999</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="15">
+      <c r="A52" s="11">
         <v>150.14389061927699</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="11">
         <v>45.81</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="11">
         <v>22.739999999999899</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="15">
+      <c r="A53" s="11">
         <v>153.145758867263</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="11">
         <v>45.969999999999899</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="11">
         <v>23.12</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="15">
+      <c r="A54" s="11">
         <v>156.14871191978401</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="11">
         <v>45.909999999999897</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="11">
         <v>23.3799999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="15">
+      <c r="A55" s="11">
         <v>159.15059447288499</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="11">
         <v>45.939999999999898</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="11">
         <v>23.48</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="15">
+      <c r="A56" s="11">
         <v>162.149728298187</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="11">
         <v>46.0399999999999</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="11">
         <v>23.73</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="15">
+      <c r="A57" s="11">
         <v>165.15180158615101</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="11">
         <v>45.969999999999899</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="11">
         <v>23.8599999999999</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="15">
+      <c r="A58" s="11">
         <v>168.15348505973799</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="11">
         <v>45.969999999999899</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="11">
         <v>24.35</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="15">
+      <c r="A59" s="11">
         <v>171.15536141395501</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="11">
         <v>45.939999999999898</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="11">
         <v>24.6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="15">
+      <c r="A60" s="11">
         <v>174.15657782554601</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="11">
         <v>45.869999999999898</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="11">
         <v>24.67</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="15">
+      <c r="A61" s="11">
         <v>177.15914368629399</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="11">
         <v>41.207470125498801</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="11">
         <v>45.909999999999897</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="11">
         <v>25.41</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="15">
+      <c r="A62" s="11">
         <v>180.16100001335101</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="11">
         <v>45.81</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="11">
         <v>25.64</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="15">
+      <c r="A63" s="11">
         <v>183.162878036499</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="11">
         <v>45.75</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="11">
         <v>26.12</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="15">
+      <c r="A64" s="11">
         <v>186.16420245170499</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="11">
         <v>45.75</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="11">
         <v>26.3399999999999</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="15">
+      <c r="A65" s="11">
         <v>189.16718006133999</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="11">
         <v>45.869999999999898</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="11">
         <v>26.67</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="15">
+      <c r="A66" s="11">
         <v>192.165872573852</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="11">
         <v>45.909999999999897</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="11">
         <v>26.92</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="15">
+      <c r="A67" s="11">
         <v>195.167747497558</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="11">
         <v>46.13</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="11">
         <v>27.12</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="15">
+      <c r="A68" s="11">
         <v>198.16961765289301</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="11">
         <v>46.3599999999999</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="11">
         <v>27.6299999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="15">
+      <c r="A69" s="11">
         <v>201.17150282859799</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="11">
         <v>46.52</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="11">
         <v>27.73</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="15">
+      <c r="A70" s="11">
         <v>204.17337727546601</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="11">
         <v>46.74</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="11">
         <v>28.0199999999999</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="15">
+      <c r="A71" s="11">
         <v>207.175246715545</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="11">
         <v>75.750123756706103</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="11">
         <v>47.13</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="11">
         <v>28.44</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="15">
+      <c r="A72" s="11">
         <v>210.177137613296</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="11">
         <v>47.32</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="11">
         <v>28.6299999999999</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="15">
+      <c r="A73" s="11">
         <v>213.179017305374</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="11">
         <v>47.6099999999999</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="11">
         <v>28.89</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="15">
+      <c r="A74" s="11">
         <v>216.17917728424001</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="11">
         <v>47.939999999999898</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="11">
         <v>29.25</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="15">
+      <c r="A75" s="11">
         <v>219.18106031417801</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="11">
         <v>48.189999999999898</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="11">
         <v>29.28</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="15">
+      <c r="A76" s="11">
         <v>222.18062996864299</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="11">
         <v>48.52</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="11">
         <v>29.37</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="15">
+      <c r="A77" s="11">
         <v>225.181156873703</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="11">
         <v>48.84</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="11">
         <v>29.73</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="15">
+      <c r="A78" s="11">
         <v>228.183037042617</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B78" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="11">
         <v>49.229999999999897</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="11">
         <v>29.57</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="15">
+      <c r="A79" s="11">
         <v>231.18491864204401</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="11">
         <v>49.64</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="11">
         <v>30.21</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="15">
+      <c r="A80" s="11">
         <v>234.18649888038601</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="11">
         <v>49.84</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="11">
         <v>30.239999999999899</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="15">
+      <c r="A81" s="11">
         <v>237.18866968154899</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="11">
         <v>92.045246557088703</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="11">
         <v>50.159999999999897</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="11">
         <v>30.37</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="15">
+      <c r="A82" s="11">
         <v>240.19054174423201</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="11">
         <v>50.45</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="11">
         <v>30.53</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="15">
+      <c r="A83" s="11">
         <v>243.19241166114799</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="11">
         <v>50.71</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="11">
         <v>30.73</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="15">
+      <c r="A84" s="11">
         <v>246.194286108016</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="11">
         <v>50.969999999999899</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="11">
         <v>31.079999999999899</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="15">
+      <c r="A85" s="11">
         <v>249.196160078048</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="11">
         <v>51.189999999999898</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="11">
         <v>31.21</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="15">
+      <c r="A86" s="11">
         <v>252.19720578193599</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="11">
         <v>51.259999999999899</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="11">
         <v>31.3399999999999</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="15">
+      <c r="A87" s="11">
         <v>255.199082136154</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="11">
         <v>51.32</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="11">
         <v>31.3399999999999</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="15">
+      <c r="A88" s="11">
         <v>258.20108795165999</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="11">
         <v>51.219999999999899</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="11">
         <v>31.76</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="15">
+      <c r="A89" s="11">
         <v>261.202830314636</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="11">
         <v>51.189999999999898</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="11">
         <v>31.7899999999999</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="15">
+      <c r="A90" s="11">
         <v>264.20582437515202</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="11">
         <v>51.159999999999897</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="11">
         <v>31.98</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="15">
+      <c r="A91" s="11">
         <v>267.20883822441101</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="11">
         <v>48.840347575990101</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="11">
         <v>50.9299999999999</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="11">
         <v>32.1799999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="15">
+      <c r="A92" s="11">
         <v>270.21009516715998</v>
       </c>
-      <c r="B92" s="15">
+      <c r="B92" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="11">
         <v>50.84</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="11">
         <v>32.270000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="15">
+      <c r="A93" s="11">
         <v>273.21197390556301</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="11">
         <v>50.71</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="11">
         <v>32.5</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="15">
+      <c r="A94" s="11">
         <v>276.21188735961903</v>
       </c>
-      <c r="B94" s="15">
+      <c r="B94" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="11">
         <v>50.509999999999899</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="11">
         <v>32.85</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="15">
+      <c r="A95" s="11">
         <v>279.21376252174298</v>
       </c>
-      <c r="B95" s="15">
+      <c r="B95" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="11">
         <v>50.45</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="11">
         <v>33.21</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="15">
+      <c r="A96" s="11">
         <v>282.215630292892</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B96" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="11">
         <v>50.219999999999899</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="11">
         <v>33.469999999999899</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="15">
+      <c r="A97" s="11">
         <v>285.21752786636301</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="11">
         <v>50.1</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="11">
         <v>33.630000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="15">
+      <c r="A98" s="11">
         <v>288.21938729286097</v>
       </c>
-      <c r="B98" s="15">
+      <c r="B98" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="11">
         <v>49.869999999999898</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="11">
         <v>33.719999999999899</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="15">
+      <c r="A99" s="11">
         <v>291.22126150131197</v>
       </c>
-      <c r="B99" s="15">
+      <c r="B99" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="11">
         <v>49.64</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="11">
         <v>34.14</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="15">
+      <c r="A100" s="11">
         <v>294.22314929962101</v>
       </c>
-      <c r="B100" s="15">
+      <c r="B100" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="11">
         <v>49.479999999999897</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="11">
         <v>33.89</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="15">
+      <c r="A101" s="11">
         <v>297.22501611709498</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="11">
         <v>29.646147484181501</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="11">
         <v>49.259999999999899</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="11">
         <v>34.590000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="15">
+      <c r="A102" s="11">
         <v>300.22466158866803</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B102" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="11">
         <v>49.1</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="11">
         <v>34.880000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="15">
+      <c r="A103" s="11">
         <v>303.22667860984802</v>
       </c>
-      <c r="B103" s="15">
+      <c r="B103" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="11">
         <v>48.899999999999899</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="11">
         <v>35.1099999999999</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="15">
+      <c r="A104" s="11">
         <v>306.22675418853697</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="11">
         <v>48.77</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="11">
         <v>35.21</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="15">
+      <c r="A105" s="11">
         <v>309.22863650321898</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="11">
         <v>48.6099999999999</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="11">
         <v>35.590000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="15">
+      <c r="A106" s="11">
         <v>312.228375196456</v>
       </c>
-      <c r="B106" s="15">
+      <c r="B106" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="11">
         <v>48.6799999999999</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="11">
         <v>35.719999999999899</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="15">
+      <c r="A107" s="11">
         <v>315.23022866248999</v>
       </c>
-      <c r="B107" s="15">
+      <c r="B107" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="11">
         <v>48.77</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="11">
         <v>35.950000000000003</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="15">
+      <c r="A108" s="11">
         <v>318.23211073875399</v>
       </c>
-      <c r="B108" s="15">
+      <c r="B108" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C108" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="11">
         <v>49</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="11">
         <v>36.21</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="15">
+      <c r="A109" s="11">
         <v>321.23397779464699</v>
       </c>
-      <c r="B109" s="15">
+      <c r="B109" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="11">
         <v>49.159999999999897</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="11">
         <v>36.46</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="15">
+      <c r="A110" s="11">
         <v>324.23585987091002</v>
       </c>
-      <c r="B110" s="15">
+      <c r="B110" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="11">
         <v>49.35</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="11">
         <v>36.4299999999999</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="15">
+      <c r="A111" s="11">
         <v>327.237784147262</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="11">
         <v>76.807626469902402</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="11">
         <v>49.579999999999899</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="11">
         <v>36.4299999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="15">
+      <c r="A112" s="11">
         <v>330.239597797393</v>
       </c>
-      <c r="B112" s="15">
+      <c r="B112" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="11">
         <v>49.899999999999899</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="11">
         <v>36.82</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="15">
+      <c r="A113" s="11">
         <v>333.24150252342201</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B113" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="11">
         <v>50</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="11">
         <v>36.75</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="15">
+      <c r="A114" s="11">
         <v>336.24385404586701</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="11">
         <v>50.39</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="11">
         <v>36.82</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="15">
+      <c r="A115" s="11">
         <v>339.247881650924</v>
       </c>
-      <c r="B115" s="15">
+      <c r="B115" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="11">
         <v>50.64</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="11">
         <v>37.0399999999999</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="15">
+      <c r="A116" s="11">
         <v>342.24981403350802</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="11">
         <v>50.969999999999899</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="11">
         <v>37.1099999999999</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="15">
+      <c r="A117" s="11">
         <v>345.45489978790198</v>
       </c>
-      <c r="B117" s="15">
+      <c r="B117" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C117" s="15">
+      <c r="C117" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="11">
         <v>51.35</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E117" s="11">
         <v>37.21</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="15">
+      <c r="A118" s="11">
         <v>348.456781625747</v>
       </c>
-      <c r="B118" s="15">
+      <c r="B118" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="11">
         <v>51.64</v>
       </c>
-      <c r="E118" s="15">
+      <c r="E118" s="11">
         <v>37.299999999999898</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="15">
+      <c r="A119" s="11">
         <v>351.45865964889498</v>
       </c>
-      <c r="B119" s="15">
+      <c r="B119" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C119" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="11">
         <v>52.03</v>
       </c>
-      <c r="E119" s="15">
+      <c r="E119" s="11">
         <v>37.399999999999899</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="15">
+      <c r="A120" s="11">
         <v>354.460552930831</v>
       </c>
-      <c r="B120" s="15">
+      <c r="B120" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C120" s="15">
+      <c r="C120" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="11">
         <v>52.2899999999999</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E120" s="11">
         <v>37.46</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="15">
+      <c r="A121" s="11">
         <v>357.45984864234902</v>
       </c>
-      <c r="B121" s="15">
+      <c r="B121" s="11">
         <v>96.422517288635404</v>
       </c>
-      <c r="C121" s="15">
+      <c r="C121" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="11">
         <v>52.71</v>
       </c>
-      <c r="E121" s="15">
+      <c r="E121" s="11">
         <v>37.399999999999899</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="15">
+      <c r="A122" s="11">
         <v>360.460046052932</v>
       </c>
-      <c r="B122" s="15">
+      <c r="B122" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C122" s="15">
+      <c r="C122" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D122" s="11">
         <v>53</v>
       </c>
-      <c r="E122" s="15">
+      <c r="E122" s="11">
         <v>37.56</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="15">
+      <c r="A123" s="11">
         <v>363.461931705474</v>
       </c>
-      <c r="B123" s="15">
+      <c r="B123" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C123" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D123" s="11">
         <v>53.219999999999899</v>
       </c>
-      <c r="E123" s="15">
+      <c r="E123" s="11">
         <v>37.619999999999898</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="15">
+      <c r="A124" s="11">
         <v>366.46170234680102</v>
       </c>
-      <c r="B124" s="15">
+      <c r="B124" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D124" s="15">
+      <c r="D124" s="11">
         <v>53.579999999999899</v>
       </c>
-      <c r="E124" s="15">
+      <c r="E124" s="11">
         <v>37.5</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="15">
+      <c r="A125" s="11">
         <v>369.46357274055401</v>
       </c>
-      <c r="B125" s="15">
+      <c r="B125" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C125" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D125" s="15">
+      <c r="D125" s="11">
         <v>53.67</v>
       </c>
-      <c r="E125" s="15">
+      <c r="E125" s="11">
         <v>37.7899999999999</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="15">
+      <c r="A126" s="11">
         <v>372.466227769851</v>
       </c>
-      <c r="B126" s="15">
+      <c r="B126" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C126" s="15">
+      <c r="C126" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D126" s="15">
+      <c r="D126" s="11">
         <v>53.74</v>
       </c>
-      <c r="E126" s="15">
+      <c r="E126" s="11">
         <v>37.659999999999897</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="15">
+      <c r="A127" s="11">
         <v>375.468109846115</v>
       </c>
-      <c r="B127" s="15">
+      <c r="B127" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C127" s="15">
+      <c r="C127" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D127" s="15">
+      <c r="D127" s="11">
         <v>53.579999999999899</v>
       </c>
-      <c r="E127" s="15">
+      <c r="E127" s="11">
         <v>37.85</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="15">
+      <c r="A128" s="11">
         <v>378.46999025344797</v>
       </c>
-      <c r="B128" s="15">
+      <c r="B128" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C128" s="15">
+      <c r="C128" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D128" s="15">
+      <c r="D128" s="11">
         <v>53.38</v>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="11">
         <v>38.009999999999899</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="15">
+      <c r="A129" s="11">
         <v>381.47071361541703</v>
       </c>
-      <c r="B129" s="15">
+      <c r="B129" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C129" s="15">
+      <c r="C129" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D129" s="15">
+      <c r="D129" s="11">
         <v>53.189999999999898</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="11">
         <v>38.079999999999899</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="15">
+      <c r="A130" s="11">
         <v>384.47258901596001</v>
       </c>
-      <c r="B130" s="15">
+      <c r="B130" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C130" s="15">
+      <c r="C130" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D130" s="15">
+      <c r="D130" s="11">
         <v>52.899999999999899</v>
       </c>
-      <c r="E130" s="15">
+      <c r="E130" s="11">
         <v>38.200000000000003</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="15">
+      <c r="A131" s="11">
         <v>387.47448134422302</v>
       </c>
-      <c r="B131" s="15">
+      <c r="B131" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C131" s="15">
+      <c r="C131" s="11">
         <v>52.622060539459603</v>
       </c>
-      <c r="D131" s="15">
+      <c r="D131" s="11">
         <v>52.64</v>
       </c>
-      <c r="E131" s="15">
+      <c r="E131" s="11">
         <v>38.14</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="15">
+      <c r="A132" s="11">
         <v>390.47417998313898</v>
       </c>
-      <c r="B132" s="15">
+      <c r="B132" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C132" s="15">
+      <c r="C132" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D132" s="15">
+      <c r="D132" s="11">
         <v>52.2899999999999</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E132" s="11">
         <v>38.689999999999898</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="15">
+      <c r="A133" s="11">
         <v>393.47639942169099</v>
       </c>
-      <c r="B133" s="15">
+      <c r="B133" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C133" s="15">
+      <c r="C133" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D133" s="11">
         <v>51.84</v>
       </c>
-      <c r="E133" s="15">
+      <c r="E133" s="11">
         <v>38.329999999999899</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="15">
+      <c r="A134" s="11">
         <v>396.47745323181101</v>
       </c>
-      <c r="B134" s="15">
+      <c r="B134" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C134" s="15">
+      <c r="C134" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D134" s="15">
+      <c r="D134" s="11">
         <v>51.479999999999897</v>
       </c>
-      <c r="E134" s="15">
+      <c r="E134" s="11">
         <v>38.399999999999899</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="15">
+      <c r="A135" s="11">
         <v>399.47933959960898</v>
       </c>
-      <c r="B135" s="15">
+      <c r="B135" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C135" s="15">
+      <c r="C135" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="11">
         <v>51.13</v>
       </c>
-      <c r="E135" s="15">
+      <c r="E135" s="11">
         <v>38.4299999999999</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="15">
+      <c r="A136" s="11">
         <v>402.48128080368002</v>
       </c>
-      <c r="B136" s="15">
+      <c r="B136" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C136" s="15">
+      <c r="C136" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D136" s="15">
+      <c r="D136" s="11">
         <v>50.6799999999999</v>
       </c>
-      <c r="E136" s="15">
+      <c r="E136" s="11">
         <v>38.619999999999898</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="15">
+      <c r="A137" s="11">
         <v>405.48308181762599</v>
       </c>
-      <c r="B137" s="15">
+      <c r="B137" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C137" s="15">
+      <c r="C137" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D137" s="15">
+      <c r="D137" s="11">
         <v>50.259999999999899</v>
       </c>
-      <c r="E137" s="15">
+      <c r="E137" s="11">
         <v>38.590000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="15">
+      <c r="A138" s="11">
         <v>408.48496770858702</v>
       </c>
-      <c r="B138" s="15">
+      <c r="B138" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C138" s="15">
+      <c r="C138" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D138" s="15">
+      <c r="D138" s="11">
         <v>49.84</v>
       </c>
-      <c r="E138" s="15">
+      <c r="E138" s="11">
         <v>38.659999999999897</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="15">
+      <c r="A139" s="11">
         <v>411.48654770851101</v>
       </c>
-      <c r="B139" s="15">
+      <c r="B139" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C139" s="15">
+      <c r="C139" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D139" s="15">
+      <c r="D139" s="11">
         <v>49.479999999999897</v>
       </c>
-      <c r="E139" s="15">
+      <c r="E139" s="11">
         <v>38.590000000000003</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="15">
+      <c r="A140" s="11">
         <v>414.48871541023198</v>
       </c>
-      <c r="B140" s="15">
+      <c r="B140" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C140" s="15">
+      <c r="C140" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D140" s="15">
+      <c r="D140" s="11">
         <v>49.06</v>
       </c>
-      <c r="E140" s="15">
+      <c r="E140" s="11">
         <v>38.46</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="15">
+      <c r="A141" s="11">
         <v>417.490577697753</v>
       </c>
-      <c r="B141" s="15">
+      <c r="B141" s="11">
         <v>0.91242113782200496</v>
       </c>
-      <c r="C141" s="15">
+      <c r="C141" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D141" s="15">
+      <c r="D141" s="11">
         <v>48.579999999999899</v>
       </c>
-      <c r="E141" s="15">
+      <c r="E141" s="11">
         <v>38.4299999999999</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="15">
+      <c r="A142" s="11">
         <v>420.490088701248</v>
       </c>
-      <c r="B142" s="15">
+      <c r="B142" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C142" s="15">
+      <c r="C142" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D142" s="15">
+      <c r="D142" s="11">
         <v>48.259999999999899</v>
       </c>
-      <c r="E142" s="15">
+      <c r="E142" s="11">
         <v>38.619999999999898</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="15">
+      <c r="A143" s="11">
         <v>423.49196505546502</v>
       </c>
-      <c r="B143" s="15">
+      <c r="B143" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C143" s="15">
+      <c r="C143" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="11">
         <v>47.81</v>
       </c>
-      <c r="E143" s="15">
+      <c r="E143" s="11">
         <v>38.270000000000003</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="15">
+      <c r="A144" s="11">
         <v>426.49111223220802</v>
       </c>
-      <c r="B144" s="15">
+      <c r="B144" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C144" s="15">
+      <c r="C144" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="11">
         <v>47.49</v>
       </c>
-      <c r="E144" s="15">
+      <c r="E144" s="11">
         <v>38.200000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="15">
+      <c r="A145" s="11">
         <v>429.49299287795998</v>
       </c>
-      <c r="B145" s="15">
+      <c r="B145" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C145" s="15">
+      <c r="C145" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="11">
         <v>47.39</v>
       </c>
-      <c r="E145" s="15">
+      <c r="E145" s="11">
         <v>38.0399999999999</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="15">
+      <c r="A146" s="11">
         <v>432.49423885345402</v>
       </c>
-      <c r="B146" s="15">
+      <c r="B146" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C146" s="15">
+      <c r="C146" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="11">
         <v>47.2899999999999</v>
       </c>
-      <c r="E146" s="15">
+      <c r="E146" s="11">
         <v>38.14</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="15">
+      <c r="A147" s="11">
         <v>435.49612760543801</v>
       </c>
-      <c r="B147" s="15">
+      <c r="B147" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C147" s="15">
+      <c r="C147" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="11">
         <v>47.32</v>
       </c>
-      <c r="E147" s="15">
+      <c r="E147" s="11">
         <v>38.079999999999899</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="15">
+      <c r="A148" s="11">
         <v>438.49803400039599</v>
       </c>
-      <c r="B148" s="15">
+      <c r="B148" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C148" s="15">
+      <c r="C148" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="11">
         <v>47.549999999999898</v>
       </c>
-      <c r="E148" s="15">
+      <c r="E148" s="11">
         <v>37.85</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="15">
+      <c r="A149" s="11">
         <v>441.49995183944702</v>
       </c>
-      <c r="B149" s="15">
+      <c r="B149" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C149" s="15">
+      <c r="C149" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="11">
         <v>47.78</v>
       </c>
-      <c r="E149" s="15">
+      <c r="E149" s="11">
         <v>37.659999999999897</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="15">
+      <c r="A150" s="11">
         <v>444.50176596641501</v>
       </c>
-      <c r="B150" s="15">
+      <c r="B150" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C150" s="15">
+      <c r="C150" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="11">
         <v>48</v>
       </c>
-      <c r="E150" s="15">
+      <c r="E150" s="11">
         <v>37.75</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="15">
+      <c r="A151" s="11">
         <v>447.50365281105002</v>
       </c>
-      <c r="B151" s="15">
+      <c r="B151" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C151" s="15">
+      <c r="C151" s="11">
         <v>14.628026515038201</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="11">
         <v>48.229999999999897</v>
       </c>
-      <c r="E151" s="15">
+      <c r="E151" s="11">
         <v>37.719999999999899</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="15">
+      <c r="A152" s="11">
         <v>450.50659775733902</v>
       </c>
-      <c r="B152" s="15">
+      <c r="B152" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C152" s="15">
+      <c r="C152" s="11">
         <v>10.463869174811199</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="11">
         <v>48.74</v>
       </c>
-      <c r="E152" s="15">
+      <c r="E152" s="11">
         <v>37.369999999999898</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="15">
+      <c r="A153" s="11">
         <v>453.50848412513699</v>
       </c>
-      <c r="B153" s="15">
+      <c r="B153" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C153" s="15">
+      <c r="C153" s="11">
         <v>0</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D153" s="11">
         <v>49.13</v>
       </c>
-      <c r="E153" s="15">
+      <c r="E153" s="11">
         <v>37.299999999999898</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="15">
+      <c r="A154" s="11">
         <v>456.50821566581698</v>
       </c>
-      <c r="B154" s="15">
+      <c r="B154" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C154" s="15">
+      <c r="C154" s="11">
         <v>0</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D154" s="11">
         <v>49.45</v>
       </c>
-      <c r="E154" s="15">
+      <c r="E154" s="11">
         <v>37.21</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="15">
+      <c r="A155" s="11">
         <v>459.51017165183998</v>
       </c>
-      <c r="B155" s="15">
+      <c r="B155" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C155" s="15">
+      <c r="C155" s="11">
         <v>0</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="11">
         <v>49.9299999999999</v>
       </c>
-      <c r="E155" s="15">
+      <c r="E155" s="11">
         <v>37.0399999999999</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="15">
+      <c r="A156" s="11">
         <v>462.51029682159401</v>
       </c>
-      <c r="B156" s="15">
+      <c r="B156" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C156" s="15">
+      <c r="C156" s="11">
         <v>0</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="11">
         <v>50.35</v>
       </c>
-      <c r="E156" s="15">
+      <c r="E156" s="11">
         <v>36.7899999999999</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="15">
+      <c r="A157" s="11">
         <v>465.51218152046198</v>
       </c>
-      <c r="B157" s="15">
+      <c r="B157" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C157" s="15">
+      <c r="C157" s="11">
         <v>0</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="11">
         <v>50.84</v>
       </c>
-      <c r="E157" s="15">
+      <c r="E157" s="11">
         <v>36.630000000000003</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="15">
+      <c r="A158" s="11">
         <v>468.51405310630702</v>
       </c>
-      <c r="B158" s="15">
+      <c r="B158" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C158" s="15">
+      <c r="C158" s="11">
         <v>0</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="11">
         <v>51.09</v>
       </c>
-      <c r="E158" s="15">
+      <c r="E158" s="11">
         <v>36.630000000000003</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="15">
+      <c r="A159" s="11">
         <v>471.51634001731799</v>
       </c>
-      <c r="B159" s="15">
+      <c r="B159" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C159" s="15">
+      <c r="C159" s="11">
         <v>0</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="11">
         <v>51.479999999999897</v>
       </c>
-      <c r="E159" s="15">
+      <c r="E159" s="11">
         <v>36.56</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="15">
+      <c r="A160" s="11">
         <v>474.518599748611</v>
       </c>
-      <c r="B160" s="15">
+      <c r="B160" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C160" s="15">
+      <c r="C160" s="11">
         <v>0</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="11">
         <v>52</v>
       </c>
-      <c r="E160" s="15">
+      <c r="E160" s="11">
         <v>36.369999999999898</v>
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="15">
+      <c r="A161" s="11">
         <v>477.52075529098499</v>
       </c>
-      <c r="B161" s="15">
+      <c r="B161" s="11">
         <v>96.130496879090998</v>
       </c>
-      <c r="C161" s="15">
+      <c r="C161" s="11">
         <v>0</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D161" s="11">
         <v>52.509999999999899</v>
       </c>
-      <c r="E161" s="15">
+      <c r="E161" s="11">
         <v>36.270000000000003</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="15">
+      <c r="A162" s="11">
         <v>480.52132034301701</v>
       </c>
-      <c r="B162" s="15">
+      <c r="B162" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C162" s="15">
+      <c r="C162" s="11">
         <v>0</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D162" s="11">
         <v>52.899999999999899</v>
       </c>
-      <c r="E162" s="15">
+      <c r="E162" s="11">
         <v>36.17</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="15">
+      <c r="A163" s="11">
         <v>483.52317976951502</v>
       </c>
-      <c r="B163" s="15">
+      <c r="B163" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C163" s="15">
+      <c r="C163" s="11">
         <v>0</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="11">
         <v>53.32</v>
       </c>
-      <c r="E163" s="15">
+      <c r="E163" s="11">
         <v>36.1099999999999</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="15">
+      <c r="A164" s="11">
         <v>486.52260780334399</v>
       </c>
-      <c r="B164" s="15">
+      <c r="B164" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C164" s="15">
+      <c r="C164" s="11">
         <v>0</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D164" s="11">
         <v>53.71</v>
       </c>
-      <c r="E164" s="15">
+      <c r="E164" s="11">
         <v>36.0399999999999</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="15">
+      <c r="A165" s="11">
         <v>489.52448582649203</v>
       </c>
-      <c r="B165" s="15">
+      <c r="B165" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C165" s="15">
+      <c r="C165" s="11">
         <v>0</v>
       </c>
-      <c r="D165" s="15">
+      <c r="D165" s="11">
         <v>53.829999999999899</v>
       </c>
-      <c r="E165" s="15">
+      <c r="E165" s="11">
         <v>35.7899999999999</v>
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="15">
+      <c r="A166" s="11">
         <v>492.523427486419</v>
       </c>
-      <c r="B166" s="15">
+      <c r="B166" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C166" s="15">
+      <c r="C166" s="11">
         <v>0</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D166" s="11">
         <v>53.96</v>
       </c>
-      <c r="E166" s="15">
+      <c r="E166" s="11">
         <v>35.82</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="15">
+      <c r="A167" s="11">
         <v>495.524040222167</v>
       </c>
-      <c r="B167" s="15">
+      <c r="B167" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C167" s="15">
+      <c r="C167" s="11">
         <v>0</v>
       </c>
-      <c r="D167" s="15">
+      <c r="D167" s="11">
         <v>53.869999999999898</v>
       </c>
-      <c r="E167" s="15">
+      <c r="E167" s="11">
         <v>35.630000000000003</v>
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="15">
+      <c r="A168" s="11">
         <v>498.52592658996502</v>
       </c>
-      <c r="B168" s="15">
+      <c r="B168" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C168" s="15">
+      <c r="C168" s="11">
         <v>0</v>
       </c>
-      <c r="D168" s="15">
+      <c r="D168" s="11">
         <v>53.74</v>
       </c>
-      <c r="E168" s="15">
+      <c r="E168" s="11">
         <v>35.53</v>
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="15">
+      <c r="A169" s="11">
         <v>501.52780008316</v>
       </c>
-      <c r="B169" s="15">
+      <c r="B169" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C169" s="15">
+      <c r="C169" s="11">
         <v>0</v>
       </c>
-      <c r="D169" s="15">
+      <c r="D169" s="11">
         <v>53.479999999999897</v>
       </c>
-      <c r="E169" s="15">
+      <c r="E169" s="11">
         <v>35.4299999999999</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="15">
+      <c r="A170" s="11">
         <v>504.52971553802399</v>
       </c>
-      <c r="B170" s="15">
+      <c r="B170" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C170" s="15">
+      <c r="C170" s="11">
         <v>0</v>
       </c>
-      <c r="D170" s="15">
+      <c r="D170" s="11">
         <v>53.159999999999897</v>
       </c>
-      <c r="E170" s="15">
+      <c r="E170" s="11">
         <v>35.340000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="15">
+      <c r="A171" s="11">
         <v>507.53154444694502</v>
       </c>
-      <c r="B171" s="15">
+      <c r="B171" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C171" s="15">
+      <c r="C171" s="11">
         <v>0</v>
       </c>
-      <c r="D171" s="15">
+      <c r="D171" s="11">
         <v>52.799999999999898</v>
       </c>
-      <c r="E171" s="15">
+      <c r="E171" s="11">
         <v>35.24</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="15">
+      <c r="A172" s="11">
         <v>510.53342676162703</v>
       </c>
-      <c r="B172" s="15">
+      <c r="B172" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C172" s="15">
+      <c r="C172" s="11">
         <v>0</v>
       </c>
-      <c r="D172" s="15">
+      <c r="D172" s="11">
         <v>52.579999999999899</v>
       </c>
-      <c r="E172" s="15">
+      <c r="E172" s="11">
         <v>35.1099999999999</v>
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="15">
+      <c r="A173" s="11">
         <v>513.53528881072896</v>
       </c>
-      <c r="B173" s="15">
+      <c r="B173" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C173" s="15">
+      <c r="C173" s="11">
         <v>0</v>
       </c>
-      <c r="D173" s="15">
+      <c r="D173" s="11">
         <v>52.189999999999898</v>
       </c>
-      <c r="E173" s="15">
+      <c r="E173" s="11">
         <v>35.009999999999899</v>
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="15">
+      <c r="A174" s="11">
         <v>516.53719449043194</v>
       </c>
-      <c r="B174" s="15">
+      <c r="B174" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C174" s="15">
+      <c r="C174" s="11">
         <v>0</v>
       </c>
-      <c r="D174" s="15">
+      <c r="D174" s="11">
         <v>51.77</v>
       </c>
-      <c r="E174" s="15">
+      <c r="E174" s="11">
         <v>34.85</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="15">
+      <c r="A175" s="11">
         <v>519.53905510902405</v>
       </c>
-      <c r="B175" s="15">
+      <c r="B175" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C175" s="15">
+      <c r="C175" s="11">
         <v>0</v>
       </c>
-      <c r="D175" s="15">
+      <c r="D175" s="11">
         <v>51.479999999999897</v>
       </c>
-      <c r="E175" s="15">
+      <c r="E175" s="11">
         <v>34.53</v>
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="15">
+      <c r="A176" s="11">
         <v>522.53928208351101</v>
       </c>
-      <c r="B176" s="15">
+      <c r="B176" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C176" s="15">
+      <c r="C176" s="11">
         <v>0</v>
       </c>
-      <c r="D176" s="15">
+      <c r="D176" s="11">
         <v>51.13</v>
       </c>
-      <c r="E176" s="15">
+      <c r="E176" s="11">
         <v>34.5</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="15">
+      <c r="A177" s="11">
         <v>525.53950381278901</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C177" s="15">
+      <c r="C177" s="11">
         <v>0</v>
       </c>
-      <c r="D177" s="15">
+      <c r="D177" s="11">
         <v>50.64</v>
       </c>
-      <c r="E177" s="15">
+      <c r="E177" s="11">
         <v>34.399999999999899</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="15">
+      <c r="A178" s="11">
         <v>528.54138016700699</v>
       </c>
-      <c r="B178" s="15">
+      <c r="B178" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C178" s="15">
+      <c r="C178" s="11">
         <v>0</v>
       </c>
-      <c r="D178" s="15">
+      <c r="D178" s="11">
         <v>50.219999999999899</v>
       </c>
-      <c r="E178" s="15">
+      <c r="E178" s="11">
         <v>34.369999999999898</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="15">
+      <c r="A179" s="11">
         <v>531.54295802116303</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C179" s="15">
+      <c r="C179" s="11">
         <v>0</v>
       </c>
-      <c r="D179" s="15">
+      <c r="D179" s="11">
         <v>49.899999999999899</v>
       </c>
-      <c r="E179" s="15">
+      <c r="E179" s="11">
         <v>34.299999999999898</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="15">
+      <c r="A180" s="11">
         <v>534.54511928558304</v>
       </c>
-      <c r="B180" s="15">
+      <c r="B180" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C180" s="15">
+      <c r="C180" s="11">
         <v>0</v>
       </c>
-      <c r="D180" s="15">
+      <c r="D180" s="11">
         <v>49.2899999999999</v>
       </c>
-      <c r="E180" s="15">
+      <c r="E180" s="11">
         <v>34.14</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="15">
+      <c r="A181" s="11">
         <v>537.54700469970703</v>
       </c>
-      <c r="B181" s="15">
+      <c r="B181" s="11">
         <v>1.4562785593418901</v>
       </c>
-      <c r="C181" s="15">
+      <c r="C181" s="11">
         <v>0</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D181" s="11">
         <v>48.899999999999899</v>
       </c>
-      <c r="E181" s="15">
+      <c r="E181" s="11">
         <v>34.009999999999899</v>
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="15">
+      <c r="A182" s="11">
         <v>540.54887247085503</v>
       </c>
-      <c r="B182" s="15">
+      <c r="B182" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C182" s="15">
+      <c r="C182" s="11">
         <v>0</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="11">
         <v>48.479999999999897</v>
       </c>
-      <c r="E182" s="15">
+      <c r="E182" s="11">
         <v>33.92</v>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="15">
+      <c r="A183" s="11">
         <v>543.55075454711903</v>
       </c>
-      <c r="B183" s="15">
+      <c r="B183" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C183" s="15">
+      <c r="C183" s="11">
         <v>0</v>
       </c>
-      <c r="D183" s="15">
+      <c r="D183" s="11">
         <v>48.03</v>
       </c>
-      <c r="E183" s="15">
+      <c r="E183" s="11">
         <v>33.759999999999899</v>
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="15">
+      <c r="A184" s="11">
         <v>546.55262279510396</v>
       </c>
-      <c r="B184" s="15">
+      <c r="B184" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C184" s="15">
+      <c r="C184" s="11">
         <v>0</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="11">
         <v>47.74</v>
       </c>
-      <c r="E184" s="15">
+      <c r="E184" s="11">
         <v>33.630000000000003</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="15">
+      <c r="A185" s="11">
         <v>549.55451226234402</v>
       </c>
-      <c r="B185" s="15">
+      <c r="B185" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C185" s="15">
+      <c r="C185" s="11">
         <v>0</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="11">
         <v>47.49</v>
       </c>
-      <c r="E185" s="15">
+      <c r="E185" s="11">
         <v>33.56</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="15">
+      <c r="A186" s="11">
         <v>552.55422258376996</v>
       </c>
-      <c r="B186" s="15">
+      <c r="B186" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C186" s="15">
+      <c r="C186" s="11">
         <v>0</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="11">
         <v>47.2899999999999</v>
       </c>
-      <c r="E186" s="15">
+      <c r="E186" s="11">
         <v>33.340000000000003</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="15">
+      <c r="A187" s="11">
         <v>555.55447697639397</v>
       </c>
-      <c r="B187" s="15">
+      <c r="B187" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C187" s="15">
+      <c r="C187" s="11">
         <v>0</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="11">
         <v>47.32</v>
       </c>
-      <c r="E187" s="15">
+      <c r="E187" s="11">
         <v>33.369999999999898</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="15">
+      <c r="A188" s="11">
         <v>558.55635666847195</v>
       </c>
-      <c r="B188" s="15">
+      <c r="B188" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C188" s="15">
+      <c r="C188" s="11">
         <v>0</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="11">
         <v>47.2899999999999</v>
       </c>
-      <c r="E188" s="15">
+      <c r="E188" s="11">
         <v>33.14</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="15">
+      <c r="A189" s="11">
         <v>561.55754113197304</v>
       </c>
-      <c r="B189" s="15">
+      <c r="B189" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C189" s="15">
+      <c r="C189" s="11">
         <v>0</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="11">
         <v>47.32</v>
       </c>
-      <c r="E189" s="15">
+      <c r="E189" s="11">
         <v>33.079999999999899</v>
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="15">
+      <c r="A190" s="11">
         <v>564.559422969818</v>
       </c>
-      <c r="B190" s="15">
+      <c r="B190" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C190" s="15">
+      <c r="C190" s="11">
         <v>0</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="11">
         <v>47.39</v>
       </c>
-      <c r="E190" s="15">
+      <c r="E190" s="11">
         <v>32.950000000000003</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="15">
+      <c r="A191" s="11">
         <v>567.561287164688</v>
       </c>
-      <c r="B191" s="15">
+      <c r="B191" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C191" s="15">
+      <c r="C191" s="11">
         <v>0</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="11">
         <v>47.579999999999899</v>
       </c>
-      <c r="E191" s="15">
+      <c r="E191" s="11">
         <v>32.729999999999897</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="15">
+      <c r="A192" s="11">
         <v>570.56316304206803</v>
       </c>
-      <c r="B192" s="15">
+      <c r="B192" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C192" s="15">
+      <c r="C192" s="11">
         <v>0</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="11">
         <v>47.81</v>
       </c>
-      <c r="E192" s="15">
+      <c r="E192" s="11">
         <v>32.759999999999899</v>
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="15">
+      <c r="A193" s="11">
         <v>573.56503748893704</v>
       </c>
-      <c r="B193" s="15">
+      <c r="B193" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C193" s="15">
+      <c r="C193" s="11">
         <v>0</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="11">
         <v>47.969999999999899</v>
       </c>
-      <c r="E193" s="15">
+      <c r="E193" s="11">
         <v>32.689999999999898</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="15">
+      <c r="A194" s="11">
         <v>576.56797409057594</v>
       </c>
-      <c r="B194" s="15">
+      <c r="B194" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C194" s="15">
+      <c r="C194" s="11">
         <v>0</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="11">
         <v>48.07</v>
       </c>
-      <c r="E194" s="15">
+      <c r="E194" s="11">
         <v>32.53</v>
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="15">
+      <c r="A195" s="11">
         <v>579.57092785835198</v>
       </c>
-      <c r="B195" s="15">
+      <c r="B195" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C195" s="15">
+      <c r="C195" s="11">
         <v>0</v>
       </c>
-      <c r="D195" s="15">
+      <c r="D195" s="11">
         <v>48.3599999999999</v>
       </c>
-      <c r="E195" s="15">
+      <c r="E195" s="11">
         <v>32.439999999999898</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="15">
+      <c r="A196" s="11">
         <v>582.56852102279595</v>
       </c>
-      <c r="B196" s="15">
+      <c r="B196" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C196" s="15">
+      <c r="C196" s="11">
         <v>0</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="11">
         <v>48.549999999999898</v>
       </c>
-      <c r="E196" s="15">
+      <c r="E196" s="11">
         <v>32.439999999999898</v>
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="15">
+      <c r="A197" s="11">
         <v>585.568218946456</v>
       </c>
-      <c r="B197" s="15">
+      <c r="B197" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C197" s="15">
+      <c r="C197" s="11">
         <v>0</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="11">
         <v>48.649999999999899</v>
       </c>
-      <c r="E197" s="15">
+      <c r="E197" s="11">
         <v>32.369999999999898</v>
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="15">
+      <c r="A198" s="11">
         <v>588.57103180885304</v>
       </c>
-      <c r="B198" s="15">
+      <c r="B198" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C198" s="15">
+      <c r="C198" s="11">
         <v>0</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="11">
         <v>48.969999999999899</v>
       </c>
-      <c r="E198" s="15">
+      <c r="E198" s="11">
         <v>32.21</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="15">
+      <c r="A199" s="11">
         <v>591.56902265548695</v>
       </c>
-      <c r="B199" s="15">
+      <c r="B199" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C199" s="15">
+      <c r="C199" s="11">
         <v>0</v>
       </c>
-      <c r="D199" s="15">
+      <c r="D199" s="11">
         <v>49.229999999999897</v>
       </c>
-      <c r="E199" s="15">
+      <c r="E199" s="11">
         <v>32.149999999999899</v>
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="15">
+      <c r="A200" s="11">
         <v>594.57120442390396</v>
       </c>
-      <c r="B200" s="15">
+      <c r="B200" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C200" s="15">
+      <c r="C200" s="11">
         <v>0</v>
       </c>
-      <c r="D200" s="15">
+      <c r="D200" s="11">
         <v>49.42</v>
       </c>
-      <c r="E200" s="15">
+      <c r="E200" s="11">
         <v>32.020000000000003</v>
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="15">
+      <c r="A201" s="11">
         <v>597.57112526893604</v>
       </c>
-      <c r="B201" s="15">
+      <c r="B201" s="11">
         <v>71.736705629173699</v>
       </c>
-      <c r="C201" s="15">
+      <c r="C201" s="11">
         <v>0</v>
       </c>
-      <c r="D201" s="15">
+      <c r="D201" s="11">
         <v>49.6799999999999</v>
       </c>
-      <c r="E201" s="15">
+      <c r="E201" s="11">
         <v>31.98</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="15">
+      <c r="A202" s="11">
         <v>600.57271289825405</v>
       </c>
-      <c r="B202" s="15">
+      <c r="B202" s="11">
         <v>85.100034079664397</v>
       </c>
-      <c r="C202" s="15">
+      <c r="C202" s="11">
         <v>54.919994293643299</v>
       </c>
-      <c r="D202" s="15">
+      <c r="D202" s="11">
         <v>49.9299999999999</v>
       </c>
-      <c r="E202" s="15">
+      <c r="E202" s="11">
         <v>31.9499999999999</v>
       </c>
     </row>
@@ -19633,11 +19559,11 @@
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
@@ -19649,11 +19575,11 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3">
         <f>COS(B7)</f>
         <v>0.87758256189037276</v>
@@ -19666,11 +19592,11 @@
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="3">
         <f>SIN(B8*PI()/180)</f>
         <v>0.49999999999999994</v>
@@ -19683,11 +19609,11 @@
       <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="3">
         <f>TAN(PI()/B9)</f>
         <v>1.6324552277619072E+16</v>
@@ -19698,11 +19624,11 @@
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="3">
         <f>MAX(2/SQRT(B10),B10^2/2,B10^3/3,(B10^2+B10^3)/5)</f>
         <v>41.666666666666664</v>
@@ -19713,11 +19639,11 @@
         <v>25</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="3">
         <f>FACT(B11)</f>
         <v>1.5511210043330984E+25</v>
@@ -19728,11 +19654,11 @@
         <v>0.5</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="3">
         <f>IF(B12&lt;1,B12^2,SIN(PI()*B12/2))</f>
         <v>0.25</v>
@@ -19743,11 +19669,11 @@
         <v>4.9989999999999997</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="3">
         <f>TRUNC(B13)</f>
         <v>4</v>
